--- a/Semestre 1/2.- Probabilidad Y Estadística/Unidad 3/7-Marzo.xlsx
+++ b/Semestre 1/2.- Probabilidad Y Estadística/Unidad 3/7-Marzo.xlsx
@@ -1,50 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Villaseñor\Documents\TecTepic\Semestre 1\2.- Probabilidad Y Estadística\Unidad 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD7F7F-4596-485D-94E1-4B82EC42A9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>x=número de recamaras en casas rentadas</t>
-  </si>
-  <si>
-    <t>y=npumero de recamaras en casas propias</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t xml:space="preserve">x=número de recamaras en casas rentadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y=npumero de recamaras en casas propias</t>
   </si>
   <si>
     <t>a)</t>
   </si>
   <si>
-    <t># casas rentadas</t>
+    <t xml:space="preserve">x rec Rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># casas rentadas</t>
   </si>
   <si>
     <t>f(x)</t>
@@ -74,7 +59,10 @@
     <t>c)</t>
   </si>
   <si>
-    <t># casas propias</t>
+    <t xml:space="preserve">y rec Prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># casas propias</t>
   </si>
   <si>
     <t>f(y)</t>
@@ -98,28 +86,76 @@
     <t>E(y)=miu)</t>
   </si>
   <si>
-    <t>x rec Rent</t>
-  </si>
-  <si>
-    <t>y rec Prop</t>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>I5,8</t>
+  </si>
+  <si>
+    <t>p=</t>
+  </si>
+  <si>
+    <t>x=numExitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f(x) [5.18]</t>
+  </si>
+  <si>
+    <t>P(x=1)=f81)=</t>
+  </si>
+  <si>
+    <t>P(x=0)=f(0)=</t>
+  </si>
+  <si>
+    <t>P(x=2)=f(2)=</t>
+  </si>
+  <si>
+    <t>e)</t>
+  </si>
+  <si>
+    <t>P(x&gt;=1)=f(1)+f(2)=</t>
+  </si>
+  <si>
+    <t>f)</t>
+  </si>
+  <si>
+    <t>E(x)=</t>
+  </si>
+  <si>
+    <t>DE(x)=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x=numero sistemas deteccion de ataque</t>
+  </si>
+  <si>
+    <t>P=</t>
+  </si>
+  <si>
+    <t>n=1</t>
+  </si>
+  <si>
+    <t>P(x=1)=f(1)=</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,8 +174,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,6 +244,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right/>
@@ -226,61 +275,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -293,20 +326,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -315,8 +345,9 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -362,12 +393,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x rec Rent</c:v>
+                  <c:v xml:space="preserve">x rec Rent</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -403,11 +434,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FBEE-49F6-95F1-6846CF9D82EB}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -423,7 +449,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -442,36 +468,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.6810228802153434E-2</c:v>
+                  <c:v>0.036810228802153434</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.33728129205921936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41049798115746972</c:v>
+                  <c:v>0.4104979811574697</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17792732166890982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7483176312247644E-2</c:v>
+                  <c:v>0.037483176312247644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FBEE-49F6-95F1-6846CF9D82EB}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-26"/>
@@ -488,7 +510,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -538,7 +560,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -557,7 +579,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -590,7 +612,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -602,8 +624,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -638,10 +661,10 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="9825037" y="171449"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -678,14 +701,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -696,19 +719,13 @@
     <xdr:ext cx="4648199" cy="3829050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="703480836" name="Picture 703480835">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000444EE29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="703480836" name="Picture 703480835" hidden="0"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -723,7 +740,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>604837</xdr:colOff>
@@ -736,17 +753,11 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1866169473" name="Chart 1866169472">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000817C3B6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1866169473" name="Chart 1866169472" hidden="0"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -764,8 +775,425 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4282617" cy="1285874"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="370467904" name="" hidden="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="0" y="0"/>
+          <a:ext cx="4282617" cy="1285874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4591049" cy="2009774"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="888111793" name="" hidden="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7448549" y="542924"/>
+          <a:ext cx="4591049" cy="2009774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5616846" cy="1809749"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27614531" name="" hidden="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="0" y="0"/>
+          <a:ext cx="5616846" cy="1809749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4591049" cy="2009774"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217482513" name="" hidden="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6095999" y="361949"/>
+          <a:ext cx="4591049" cy="2009774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -968,60 +1396,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col customWidth="1" min="9" max="9" width="4.5703125"/>
+    <col customWidth="1" min="10" max="10" width="12.85546875"/>
+    <col customWidth="1" min="11" max="11" width="14.5703125"/>
+    <col customWidth="1" min="12" max="12" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="J3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="J4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="I6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="J7" s="5">
         <v>0</v>
       </c>
@@ -1030,14 +1456,14 @@
       </c>
       <c r="L7" s="5">
         <f>K7/K12</f>
-        <v>3.6810228802153434E-2</v>
+        <v>0.036810228802153434</v>
       </c>
       <c r="M7">
-        <f>J7*L7</f>
+        <f t="shared" ref="M7:M9" si="0">J7*L7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="J8" s="5">
         <v>1</v>
       </c>
@@ -1049,11 +1475,11 @@
         <v>0.33728129205921936</v>
       </c>
       <c r="M8">
-        <f>J8*L8</f>
+        <f t="shared" si="0"/>
         <v>0.33728129205921936</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="J9" s="5">
         <v>2</v>
       </c>
@@ -1065,11 +1491,11 @@
         <v>0.41049798115746972</v>
       </c>
       <c r="M9">
-        <f>J9*L9</f>
+        <f t="shared" si="0"/>
         <v>0.82099596231493943</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="J10" s="5">
         <v>3</v>
       </c>
@@ -1081,11 +1507,11 @@
         <v>0.17792732166890982</v>
       </c>
       <c r="M10">
-        <f>J10*L10</f>
+        <f t="shared" ref="M10:M11" si="1">J10*L10</f>
         <v>0.53378196500672948</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="J11" s="5">
         <v>4</v>
       </c>
@@ -1094,22 +1520,22 @@
       </c>
       <c r="L11" s="5">
         <f>K11/K12</f>
-        <v>3.7483176312247644E-2</v>
+        <v>0.037483176312247644</v>
       </c>
       <c r="M11">
-        <f>J11*L11</f>
+        <f t="shared" si="1"/>
         <v>0.14993270524899058</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="J12" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" s="8">
         <f>SUM(K7:K11)</f>
         <v>14860</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="9">
         <f>SUM(L7:L11)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -1118,172 +1544,405 @@
         <v>1.8419919246298788</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="M13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="I14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="J15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="I18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="J19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="12">
         <v>23</v>
       </c>
       <c r="L19" s="5">
         <f>K19/K24</f>
-        <v>1.3634477443831882E-3</v>
-      </c>
-      <c r="M19" s="10">
-        <f>J19*L19</f>
+        <v>0.0013634477443831882</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" ref="M19:M23" si="2">J19*L19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="J20" s="5">
         <v>1</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="12">
         <v>541</v>
       </c>
       <c r="L20" s="5">
         <f>K20/K24</f>
-        <v>3.2070662161361077E-2</v>
-      </c>
-      <c r="M20" s="10">
-        <f>J20*L20</f>
-        <v>3.2070662161361077E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+        <v>0.032070662161361077</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="2"/>
+        <v>0.032070662161361077</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="J21" s="5">
         <v>2</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="12">
         <v>3832</v>
       </c>
       <c r="L21" s="5">
         <f>K21/K24</f>
         <v>0.2271622502815816</v>
       </c>
-      <c r="M21" s="10">
-        <f>J21*L21</f>
+      <c r="M21" s="11">
+        <f t="shared" si="2"/>
         <v>0.4543245005631632</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="J22" s="5">
         <v>3</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="12">
         <v>8690</v>
       </c>
       <c r="L22" s="5">
         <f>K22/K24</f>
         <v>0.51514612602999588</v>
       </c>
-      <c r="M22" s="10">
-        <f>J22*L22</f>
+      <c r="M22" s="11">
+        <f t="shared" si="2"/>
         <v>1.5454383780899876</v>
       </c>
     </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="J23" s="5">
         <v>4</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="12">
         <v>3783</v>
       </c>
       <c r="L23" s="5">
         <f>K23/K24</f>
         <v>0.22425751378267827</v>
       </c>
-      <c r="M23" s="10">
-        <f>J23*L23</f>
+      <c r="M23" s="11">
+        <f t="shared" si="2"/>
         <v>0.8970300551307131</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="J24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="12">
+        <v>8</v>
+      </c>
+      <c r="K24" s="13">
         <f>SUM(K19:K23)</f>
         <v>16869</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="9">
         <f>SUM(L19:L23)</f>
         <v>1</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="6">
         <f>SUM(M19:M23)</f>
         <v>2.9288635959452254</v>
       </c>
     </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="M25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="I27" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K27">
         <f>M24</f>
         <v>2.9288635959452254</v>
       </c>
     </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="J28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K28">
         <v>1.768</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="11.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>0.47999999999999998</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="e">
+        <f>COMBIN($K$2,C10)*($K$3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10">
+        <v>0.35999999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>0.35999999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>0.64000000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="e">
+        <f>COMBIN(C17,B23)*(C16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D23">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>